--- a/excelToCSV/excel/RushListCfg.xlsx
+++ b/excelToCSV/excel/RushListCfg.xlsx
@@ -5,18 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pythonTools\excelToCSV\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityPythonTools\excelToCSV\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4726142-4A20-4B51-A3C3-73A3AE72FCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1897C4AE-31F7-43ED-9D60-7621AA176FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -82,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
   <si>
     <t>RankId</t>
   </si>
@@ -256,6 +269,14 @@
   </si>
   <si>
     <t xml:space="preserve"> ;LOC_RUSH_LIST_CORNER_1;LOC_RUSH_LIST_CORNER_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -686,25 +707,25 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="8" width="13.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="2"/>
-    <col min="12" max="12" width="37.5" style="2" customWidth="1"/>
+    <col min="5" max="8" width="13.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="2"/>
+    <col min="12" max="12" width="37.453125" style="2" customWidth="1"/>
     <col min="13" max="13" width="68" customWidth="1"/>
-    <col min="14" max="14" width="27.25" customWidth="1"/>
-    <col min="15" max="16" width="23.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.26953125" customWidth="1"/>
+    <col min="15" max="16" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,7 +778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -810,7 +831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -863,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -916,9 +937,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>1</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
@@ -970,9 +991,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>2</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
@@ -1040,9 +1061,9 @@
       <selection activeCell="G1" sqref="G1:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1060,7 +1081,7 @@
         <v>1:1</v>
       </c>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>2:2</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>3:3</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>4</v>
       </c>
@@ -1111,7 +1132,7 @@
         <v>4:4</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>5</v>
       </c>
@@ -1126,7 +1147,7 @@
         <v>5:5</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>6</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>6:6</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>7</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>7:7</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>8</v>
       </c>
@@ -1171,7 +1192,7 @@
         <v>8:8</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>9</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>9:9</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>10</v>
       </c>
@@ -1201,7 +1222,7 @@
         <v>10:10</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>11</v>
       </c>
@@ -1216,7 +1237,7 @@
         <v>11:11</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>12</v>
       </c>
@@ -1231,7 +1252,7 @@
         <v>12:12</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>13</v>
       </c>
@@ -1246,7 +1267,7 @@
         <v>13:13</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>14</v>
       </c>
@@ -1261,7 +1282,7 @@
         <v>14:14</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>15</v>
       </c>
@@ -1276,7 +1297,7 @@
         <v>15:15</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>16</v>
       </c>
@@ -1291,7 +1312,7 @@
         <v>16:16</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>17</v>
       </c>
@@ -1306,7 +1327,7 @@
         <v>17:17</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>18</v>
       </c>
@@ -1321,7 +1342,7 @@
         <v>18:18</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>19</v>
       </c>
@@ -1336,7 +1357,7 @@
         <v>19:19</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>20</v>
       </c>
@@ -1351,7 +1372,7 @@
         <v>20:20</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>21</v>
       </c>
@@ -1366,7 +1387,7 @@
         <v>21:21</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>22</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>22:22</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>23</v>
       </c>
@@ -1396,7 +1417,7 @@
         <v>23:23</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>24</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>24:24</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>25</v>
       </c>
@@ -1426,7 +1447,7 @@
         <v>25:25</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>26</v>
       </c>
@@ -1441,7 +1462,7 @@
         <v>26:26</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>27</v>
       </c>
@@ -1456,7 +1477,7 @@
         <v>27:27</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>28</v>
       </c>
@@ -1471,7 +1492,7 @@
         <v>28:28</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>29</v>
       </c>
@@ -1486,7 +1507,7 @@
         <v>29:29</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>30</v>
       </c>
@@ -1501,7 +1522,7 @@
         <v>30:30</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>31</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>31:31</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>32</v>
       </c>
@@ -1531,7 +1552,7 @@
         <v>32:32</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>33</v>
       </c>
@@ -1546,7 +1567,7 @@
         <v>33:33</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>34</v>
       </c>
@@ -1561,7 +1582,7 @@
         <v>34:34</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>35</v>
       </c>
@@ -1576,7 +1597,7 @@
         <v>35:35</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>36</v>
       </c>
@@ -1591,7 +1612,7 @@
         <v>36:36</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>37</v>
       </c>
@@ -1606,7 +1627,7 @@
         <v>37:37</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>38</v>
       </c>
@@ -1621,7 +1642,7 @@
         <v>38:38</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>39</v>
       </c>
@@ -1636,7 +1657,7 @@
         <v>39:39</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>40</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>40:40</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>41</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>41:41</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>42</v>
       </c>
@@ -1681,7 +1702,7 @@
         <v>42:42</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>43</v>
       </c>
@@ -1696,7 +1717,7 @@
         <v>43:43</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>44</v>
       </c>
@@ -1711,7 +1732,7 @@
         <v>44:44</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>45</v>
       </c>
@@ -1726,7 +1747,7 @@
         <v>45:45</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>46</v>
       </c>
@@ -1741,7 +1762,7 @@
         <v>46:46</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>47</v>
       </c>
@@ -1756,7 +1777,7 @@
         <v>47:47</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>48</v>
       </c>
@@ -1771,7 +1792,7 @@
         <v>48:48</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>49</v>
       </c>
@@ -1786,7 +1807,7 @@
         <v>49:49</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>50</v>
       </c>
